--- a/SourceCode/2024/Feb 2024/Sirisha/Task25/Task25.xlsx
+++ b/SourceCode/2024/Feb 2024/Sirisha/Task25/Task25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4bd40ed4abe2f4b/Documents/GitHub/RPA-Developer-in-30-Days/SourceCode/2024/Feb 2024/Sirisha/Task25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_FB12FD3F643DD63A31F469B4873F7D98D69843B5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E607A38A-9F91-44F3-813A-20EA59A9A123}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_B2025F2B81C5169CFB24657691CE254EDB980D1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A92026F-96FF-4C27-AB15-D4204BFC64C3}"/>
   <x:bookViews>
     <x:workbookView xWindow="1284" yWindow="624" windowWidth="21540" windowHeight="11208" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -625,16 +625,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C9"/>
+  <x:dimension ref="A1:C47"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A3" sqref="A3"/>
-    </x:sheetView>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="1" width="88.109375" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="20.441406" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="99" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="30.777344" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -736,7 +734,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:3">
+    <x:row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A10" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -747,7 +745,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:3">
+    <x:row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A11" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -758,7 +756,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:3">
+    <x:row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A12" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -766,7 +764,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:3">
+    <x:row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
@@ -774,7 +772,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:3">
+    <x:row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A14" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -782,7 +780,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:3">
+    <x:row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A15" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
@@ -790,7 +788,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:3">
+    <x:row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A16" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
@@ -798,7 +796,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:3">
+    <x:row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A17" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
@@ -806,7 +804,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:3">
+    <x:row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A18" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -817,7 +815,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:3">
+    <x:row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A19" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -828,7 +826,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:3">
+    <x:row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A20" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -839,7 +837,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:3">
+    <x:row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A21" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -850,7 +848,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:3">
+    <x:row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A22" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
@@ -861,7 +859,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:3">
+    <x:row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A23" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
@@ -872,7 +870,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:3">
+    <x:row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A24" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
@@ -883,7 +881,7 @@
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:3">
+    <x:row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A25" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -894,7 +892,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:3">
+    <x:row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A26" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
@@ -902,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:3">
+    <x:row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A27" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
@@ -910,7 +908,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:3">
+    <x:row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A28" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
@@ -918,7 +916,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:3">
+    <x:row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A29" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -926,7 +924,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:3">
+    <x:row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A30" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
@@ -937,7 +935,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:3">
+    <x:row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A31" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
@@ -948,7 +946,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:3">
+    <x:row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A32" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
@@ -959,7 +957,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:3">
+    <x:row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A33" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
@@ -970,7 +968,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:3">
+    <x:row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A34" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
@@ -981,7 +979,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:3">
+    <x:row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A35" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
@@ -992,7 +990,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:3">
+    <x:row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A36" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
@@ -1003,7 +1001,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:3">
+    <x:row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A37" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -1014,7 +1012,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:3">
+    <x:row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A38" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
@@ -1025,7 +1023,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:3">
+    <x:row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A39" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
@@ -1036,7 +1034,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:3">
+    <x:row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A40" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
@@ -1047,7 +1045,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:3">
+    <x:row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A41" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
@@ -1058,7 +1056,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:3">
+    <x:row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A42" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
@@ -1069,7 +1067,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:3">
+    <x:row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A43" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
@@ -1080,7 +1078,7 @@
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:3">
+    <x:row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A44" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
@@ -1091,7 +1089,7 @@
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:3">
+    <x:row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A45" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
@@ -1102,7 +1100,7 @@
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:3">
+    <x:row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A46" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
@@ -1113,7 +1111,7 @@
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:3">
+    <x:row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A47" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
